--- a/data/trans_orig/P1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F20CD4-67F4-4ADC-9849-C8AF436AF505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2809E7-0D1A-48D2-9B6A-42BF23E66F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{21EB1E3B-F373-4DFF-A71E-4CA130B35508}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA763836-0573-4148-80D5-2235EB4D84C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>92,37%</t>
+    <t>92,35%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -116,19 +116,19 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +197,49 @@
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>92,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,1003 +248,919 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>91,79%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>88,26%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>13,14%</t>
@@ -1253,91 +1169,73 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>86,86%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>10,25%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B55635-46A2-4B4C-8162-E16790E74B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C895E92-D81B-4A7D-9752-460E40B768A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2034,7 +1932,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -2043,13 +1941,13 @@
         <v>38435</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -2058,13 +1956,13 @@
         <v>64973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +1977,13 @@
         <v>552117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -2094,13 +1992,13 @@
         <v>537161</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1080</v>
@@ -2109,13 +2007,13 @@
         <v>1089277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,7 +2069,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2081,13 @@
         <v>57591</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2198,13 +2096,13 @@
         <v>73651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2213,13 +2111,13 @@
         <v>131243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2132,13 @@
         <v>904209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>843</v>
@@ -2249,13 +2147,13 @@
         <v>894742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -2264,13 +2162,13 @@
         <v>1798950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2391,13 @@
         <v>61131</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2508,13 +2406,13 @@
         <v>107748</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2523,13 +2421,13 @@
         <v>168879</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2442,13 @@
         <v>881091</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>893</v>
@@ -2559,13 +2457,13 @@
         <v>930864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1825</v>
@@ -2574,13 +2472,13 @@
         <v>1811955</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2546,13 @@
         <v>198239</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -2663,28 +2561,28 @@
         <v>318275</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
       </c>
       <c r="N19" s="7">
-        <v>516513</v>
+        <v>516514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2597,13 @@
         <v>3078305</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -2714,13 +2612,13 @@
         <v>3060923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6007</v>
@@ -2729,13 +2627,13 @@
         <v>6139227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,7 +2675,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2791,7 +2689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C480EB3F-1F37-4E9C-B62D-7C9295481286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80994319-8D84-4079-B5BE-9E086869FE3F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2834,13 @@
         <v>8261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2951,13 +2849,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2966,13 +2864,13 @@
         <v>23619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2885,13 @@
         <v>107504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -3002,13 +2900,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -3017,13 +2915,13 @@
         <v>204051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +2989,13 @@
         <v>39439</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3106,13 +3004,13 @@
         <v>89544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -3121,13 +3019,13 @@
         <v>128983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3040,13 @@
         <v>548265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>465</v>
@@ -3157,13 +3055,13 @@
         <v>495601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3172,13 +3070,13 @@
         <v>1043866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3132,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3144,13 @@
         <v>83373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -3261,13 +3159,13 @@
         <v>162821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3276,13 +3174,13 @@
         <v>246195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3195,13 @@
         <v>933520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -3312,28 +3210,28 @@
         <v>869363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>1802882</v>
+        <v>1802883</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,7 +3273,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049077</v>
+        <v>2049078</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3401,13 +3299,13 @@
         <v>41168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3416,13 +3314,13 @@
         <v>102244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3431,13 +3329,13 @@
         <v>143412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3350,13 @@
         <v>716455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3467,13 +3365,13 @@
         <v>673875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -3482,13 +3380,13 @@
         <v>1390330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3454,13 @@
         <v>70421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -3571,13 +3469,13 @@
         <v>150778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3586,13 +3484,13 @@
         <v>221199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3505,13 @@
         <v>876381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3622,13 +3520,13 @@
         <v>900178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3637,13 +3535,13 @@
         <v>1776559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3609,13 @@
         <v>242663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3726,13 +3624,13 @@
         <v>520744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -3741,13 +3639,13 @@
         <v>763407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3660,13 @@
         <v>3182125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2813</v>
@@ -3777,13 +3675,13 @@
         <v>3035565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5800</v>
@@ -3792,13 +3690,13 @@
         <v>6217690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3752,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9817C57F-BBA7-477B-95AE-CB5FCE68174A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7C2B4-53A8-49DB-AA0A-79DAB61F4649}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3897,13 @@
         <v>6416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4014,13 +3912,13 @@
         <v>15536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4029,13 +3927,13 @@
         <v>21951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +3948,13 @@
         <v>110130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4065,13 +3963,13 @@
         <v>97824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -4080,13 +3978,13 @@
         <v>207955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4052,13 @@
         <v>32968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -4169,13 +4067,13 @@
         <v>69405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -4184,13 +4082,13 @@
         <v>102372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4103,13 @@
         <v>525286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4220,13 +4118,13 @@
         <v>490074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -4235,13 +4133,13 @@
         <v>1015361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4195,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4309,13 +4207,13 @@
         <v>50812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4324,13 +4222,13 @@
         <v>126107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4339,13 +4237,13 @@
         <v>176920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4258,13 @@
         <v>971619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -4375,13 +4273,13 @@
         <v>916806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4390,13 +4288,13 @@
         <v>1888424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4362,13 @@
         <v>45020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4479,13 +4377,13 @@
         <v>102398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4494,13 +4392,13 @@
         <v>147418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4413,13 @@
         <v>714532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -4530,13 +4428,13 @@
         <v>682613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4545,13 +4443,13 @@
         <v>1397145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4517,13 @@
         <v>70759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -4634,13 +4532,13 @@
         <v>118814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4649,13 +4547,13 @@
         <v>189573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4568,13 @@
         <v>866808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -4685,13 +4583,13 @@
         <v>924965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4700,13 +4598,13 @@
         <v>1791773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4672,13 @@
         <v>205975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4789,13 +4687,13 @@
         <v>432259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>581</v>
@@ -4804,13 +4702,13 @@
         <v>638234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4723,13 @@
         <v>3188375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>2952</v>
@@ -4840,13 +4738,13 @@
         <v>3112283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>5988</v>
@@ -4855,13 +4753,13 @@
         <v>6300658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4815,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECEA201-8C60-41C9-91EE-A34343EA8C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D947791-433C-4E77-8CBF-D2FFB69F7537}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +4960,13 @@
         <v>5776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5077,13 +4975,13 @@
         <v>15623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5092,13 +4990,13 @@
         <v>21399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5011,13 @@
         <v>96206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5128,13 +5026,13 @@
         <v>114436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5143,13 +5041,13 @@
         <v>210642</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5115,13 @@
         <v>31765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5232,13 +5130,13 @@
         <v>63014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5247,13 +5145,13 @@
         <v>94780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5166,13 @@
         <v>518058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>885</v>
@@ -5283,13 +5181,13 @@
         <v>529948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -5298,13 +5196,13 @@
         <v>1048005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5258,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5372,13 +5270,13 @@
         <v>52903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -5387,13 +5285,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5402,13 +5300,13 @@
         <v>172215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5321,13 @@
         <v>986345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>1334</v>
@@ -5438,13 +5336,13 @@
         <v>939476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>2237</v>
@@ -5453,13 +5351,13 @@
         <v>1925821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5425,13 @@
         <v>63803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5542,13 +5440,13 @@
         <v>93119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5557,13 +5455,13 @@
         <v>156922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5476,13 @@
         <v>664969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>922</v>
@@ -5593,13 +5491,13 @@
         <v>781252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>1541</v>
@@ -5608,13 +5506,13 @@
         <v>1446220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5580,13 @@
         <v>55835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5697,13 +5595,13 @@
         <v>151005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -5712,13 +5610,13 @@
         <v>206840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5631,13 @@
         <v>908282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>1353</v>
@@ -5748,13 +5646,13 @@
         <v>998176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>2294</v>
@@ -5763,13 +5661,13 @@
         <v>1906458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5735,13 @@
         <v>210083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>657</v>
@@ -5852,13 +5750,13 @@
         <v>442073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>881</v>
@@ -5867,13 +5765,13 @@
         <v>652155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5786,13 @@
         <v>3173859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>4702</v>
@@ -5903,13 +5801,13 @@
         <v>3363287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>7852</v>
@@ -5918,13 +5816,13 @@
         <v>6537147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +5878,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2809E7-0D1A-48D2-9B6A-42BF23E66F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC26F73-DFF4-430A-9431-D00D5F1770D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA763836-0573-4148-80D5-2235EB4D84C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C033B00-53CE-451D-843B-02D5C6065FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1032 +107,1068 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>90,42%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
     <t>88,52%</t>
   </si>
   <si>
@@ -1166,9 +1202,6 @@
     <t>13,14%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
     <t>8,61%</t>
   </si>
   <si>
@@ -1187,9 +1220,6 @@
     <t>86,86%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
     <t>88,7%</t>
   </si>
   <si>
@@ -1208,9 +1238,6 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
     <t>8,35%</t>
   </si>
   <si>
@@ -1227,9 +1254,6 @@
   </si>
   <si>
     <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
   </si>
   <si>
     <t>90,15%</t>
@@ -1647,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C895E92-D81B-4A7D-9752-460E40B768A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF1FE6A-60CA-444D-AD82-7893E1958397}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2096,13 +2120,13 @@
         <v>73651</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2111,10 +2135,10 @@
         <v>131243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2147,13 +2171,13 @@
         <v>894742</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1684</v>
@@ -2162,13 +2186,13 @@
         <v>1798950</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2415,13 @@
         <v>61131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2406,13 +2430,13 @@
         <v>107748</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2442,13 +2466,13 @@
         <v>881091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>893</v>
@@ -2457,10 +2481,10 @@
         <v>930864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>99</v>
@@ -2543,7 +2567,7 @@
         <v>196</v>
       </c>
       <c r="D19" s="7">
-        <v>198239</v>
+        <v>198238</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>103</v>
@@ -2567,7 +2591,7 @@
         <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
@@ -2576,13 +2600,13 @@
         <v>516514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2621,13 @@
         <v>3078305</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -2612,13 +2636,13 @@
         <v>3060923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6007</v>
@@ -2627,13 +2651,13 @@
         <v>6139227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,7 +2669,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2689,7 +2713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80994319-8D84-4079-B5BE-9E086869FE3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5265D27E-5C78-4F5C-B8E3-1FB8D2B8FDBE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2858,13 @@
         <v>8261</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2849,13 +2873,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2864,13 +2888,13 @@
         <v>23619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2909,13 @@
         <v>107504</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2900,13 +2924,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2915,7 +2939,7 @@
         <v>204051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>135</v>
@@ -3147,10 +3171,10 @@
         <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -3159,13 +3183,13 @@
         <v>162821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3174,13 +3198,13 @@
         <v>246195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3219,13 @@
         <v>933520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -3210,28 +3234,28 @@
         <v>869363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
       </c>
       <c r="N11" s="7">
-        <v>1802883</v>
+        <v>1802882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3297,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049078</v>
+        <v>2049077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3299,13 +3323,13 @@
         <v>41168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3314,13 +3338,13 @@
         <v>102244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3329,13 +3353,13 @@
         <v>143412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3374,13 @@
         <v>716455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3365,13 +3389,13 @@
         <v>673875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -3380,13 +3404,13 @@
         <v>1390330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3478,13 @@
         <v>70421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -3469,13 +3493,13 @@
         <v>150778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3484,13 +3508,13 @@
         <v>221199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3529,13 @@
         <v>876381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3520,13 +3544,13 @@
         <v>900178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3609,13 +3633,13 @@
         <v>242663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3624,13 +3648,13 @@
         <v>520744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -3639,13 +3663,13 @@
         <v>763407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3684,13 @@
         <v>3182125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2813</v>
@@ -3675,13 +3699,13 @@
         <v>3035565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5800</v>
@@ -3690,13 +3714,13 @@
         <v>6217690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3776,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE7C2B4-53A8-49DB-AA0A-79DAB61F4649}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3933ED7-537A-44D0-9799-5870434DC92E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,13 +3921,13 @@
         <v>6416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3912,13 +3936,13 @@
         <v>15536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3927,13 +3951,13 @@
         <v>21951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3972,13 @@
         <v>110130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -3963,13 +3987,13 @@
         <v>97824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -3978,13 +4002,13 @@
         <v>207955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4076,13 @@
         <v>32968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -4067,13 +4091,13 @@
         <v>69405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -4082,13 +4106,13 @@
         <v>102372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4127,13 @@
         <v>525286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4118,13 +4142,13 @@
         <v>490074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -4133,13 +4157,13 @@
         <v>1015361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4231,13 @@
         <v>50812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4222,13 +4246,13 @@
         <v>126107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4237,13 +4261,13 @@
         <v>176920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4282,13 @@
         <v>971619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -4273,13 +4297,13 @@
         <v>916806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4288,13 +4312,13 @@
         <v>1888424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4386,13 @@
         <v>45020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4377,13 +4401,13 @@
         <v>102398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4392,13 +4416,13 @@
         <v>147418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4437,13 @@
         <v>714532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -4428,13 +4452,13 @@
         <v>682613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4443,13 +4467,13 @@
         <v>1397145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4541,13 @@
         <v>70759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -4532,13 +4556,13 @@
         <v>118814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4547,13 +4571,13 @@
         <v>189573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4592,13 @@
         <v>866808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -4583,13 +4607,13 @@
         <v>924965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4598,13 +4622,13 @@
         <v>1791773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4696,13 @@
         <v>205975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4687,13 +4711,13 @@
         <v>432259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>581</v>
@@ -4702,13 +4726,13 @@
         <v>638234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4747,13 @@
         <v>3188375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>2952</v>
@@ -4738,13 +4762,13 @@
         <v>3112283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>5988</v>
@@ -4753,13 +4777,13 @@
         <v>6300658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4839,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D947791-433C-4E77-8CBF-D2FFB69F7537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DF78-048C-479E-BBCC-3BBAF86196C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,7 +4877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,13 +4984,13 @@
         <v>5776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4975,13 +4999,13 @@
         <v>15623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -4990,13 +5014,13 @@
         <v>21399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5035,13 @@
         <v>96206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5026,13 +5050,13 @@
         <v>114436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5041,13 +5065,13 @@
         <v>210642</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5139,13 @@
         <v>31765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5130,13 +5154,13 @@
         <v>63014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5145,13 +5169,13 @@
         <v>94780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5190,13 @@
         <v>518058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>885</v>
@@ -5181,13 +5205,13 @@
         <v>529948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -5196,13 +5220,13 @@
         <v>1048005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5294,13 @@
         <v>52903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -5285,13 +5309,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5300,13 +5324,13 @@
         <v>172215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5345,13 @@
         <v>986345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>1334</v>
@@ -5336,13 +5360,13 @@
         <v>939476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>2237</v>
@@ -5351,13 +5375,13 @@
         <v>1925821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5449,13 @@
         <v>63803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5440,13 +5464,13 @@
         <v>93119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5455,13 +5479,13 @@
         <v>156922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5500,13 @@
         <v>664969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>922</v>
@@ -5491,13 +5515,13 @@
         <v>781252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1541</v>
@@ -5506,13 +5530,13 @@
         <v>1446220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5604,13 @@
         <v>55835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5595,10 +5619,10 @@
         <v>151005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>140</v>
@@ -5610,13 +5634,13 @@
         <v>206840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5655,13 @@
         <v>908282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>1353</v>
@@ -5646,13 +5670,13 @@
         <v>998176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>2294</v>
@@ -5661,13 +5685,13 @@
         <v>1906458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5759,13 @@
         <v>210083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>657</v>
@@ -5750,13 +5774,13 @@
         <v>442073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>881</v>
@@ -5765,13 +5789,13 @@
         <v>652155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5810,13 @@
         <v>3173859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>4702</v>
@@ -5801,13 +5825,13 @@
         <v>3363287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>7852</v>
@@ -5816,13 +5840,13 @@
         <v>6537147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5902,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC26F73-DFF4-430A-9431-D00D5F1770D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE937A5-5C18-4804-A5F0-728873D48100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C033B00-53CE-451D-843B-02D5C6065FD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C146FE6-5C4A-488A-AEA3-86DBFC407EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,1195 +71,1273 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,53%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>88,88%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF1FE6A-60CA-444D-AD82-7893E1958397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35707E3-7DC0-4BFB-93AE-E4D2040A9103}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1956,7 +2034,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -1965,13 +2043,13 @@
         <v>38435</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -1980,13 +2058,13 @@
         <v>64973</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,13 +2079,13 @@
         <v>552117</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>530</v>
@@ -2016,13 +2094,13 @@
         <v>537161</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1080</v>
@@ -2031,13 +2109,13 @@
         <v>1089277</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2093,7 +2171,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2105,13 +2183,13 @@
         <v>57591</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -2120,13 +2198,13 @@
         <v>73651</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -2135,13 +2213,13 @@
         <v>131243</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2234,13 @@
         <v>904209</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>843</v>
@@ -2171,7 +2249,7 @@
         <v>894742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
@@ -2436,7 +2514,7 @@
         <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2445,13 +2523,13 @@
         <v>168879</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2544,13 @@
         <v>881091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>893</v>
@@ -2481,13 +2559,13 @@
         <v>930864</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1825</v>
@@ -2496,13 +2574,13 @@
         <v>1811955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,16 +2645,16 @@
         <v>196</v>
       </c>
       <c r="D19" s="7">
-        <v>198238</v>
+        <v>198239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>308</v>
@@ -2585,28 +2663,28 @@
         <v>318275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
       </c>
       <c r="N19" s="7">
-        <v>516514</v>
+        <v>516513</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2699,13 @@
         <v>3078305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -2636,13 +2714,13 @@
         <v>3060923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6007</v>
@@ -2651,13 +2729,13 @@
         <v>6139227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2747,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2699,7 +2777,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2713,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5265D27E-5C78-4F5C-B8E3-1FB8D2B8FDBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD60750-8F6B-468E-B097-A7A4BDB60C3A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2751,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2858,13 +2936,13 @@
         <v>8261</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2873,13 +2951,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2891,10 +2969,10 @@
         <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2987,13 @@
         <v>107504</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2924,13 +3002,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2939,13 +3017,13 @@
         <v>204051</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3091,13 @@
         <v>39439</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>86</v>
@@ -3028,13 +3106,13 @@
         <v>89544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -3043,13 +3121,13 @@
         <v>128983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3142,13 @@
         <v>548265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>465</v>
@@ -3079,13 +3157,13 @@
         <v>495601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3094,13 +3172,13 @@
         <v>1043866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3234,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3168,13 +3246,13 @@
         <v>83373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>147</v>
@@ -3183,13 +3261,13 @@
         <v>162821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -3198,13 +3276,13 @@
         <v>246195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3297,13 @@
         <v>933520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>793</v>
@@ -3234,13 +3312,13 @@
         <v>869363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1654</v>
@@ -3249,13 +3327,13 @@
         <v>1802882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3401,13 @@
         <v>41168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3338,13 +3416,13 @@
         <v>102244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -3353,13 +3431,13 @@
         <v>143412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3452,13 @@
         <v>716455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>610</v>
@@ -3389,13 +3467,13 @@
         <v>673875</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -3404,13 +3482,13 @@
         <v>1390330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3556,13 @@
         <v>70421</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -3493,13 +3571,13 @@
         <v>150778</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3508,13 +3586,13 @@
         <v>221199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3607,13 @@
         <v>876381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3544,13 +3622,13 @@
         <v>900178</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>1703</v>
@@ -3559,13 +3637,13 @@
         <v>1776559</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3711,13 @@
         <v>242663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3648,13 +3726,13 @@
         <v>520744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>703</v>
@@ -3663,13 +3741,13 @@
         <v>763407</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3762,13 @@
         <v>3182125</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2813</v>
@@ -3699,13 +3777,13 @@
         <v>3035565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>5800</v>
@@ -3714,13 +3792,13 @@
         <v>6217690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3933ED7-537A-44D0-9799-5870434DC92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB63377-BC27-4C9E-BA71-3DF49E71E5E0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3814,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,13 +3999,13 @@
         <v>6416</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3936,13 +4014,13 @@
         <v>15536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3951,13 +4029,13 @@
         <v>21951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +4050,13 @@
         <v>110130</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -3987,13 +4065,13 @@
         <v>97824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -4002,13 +4080,13 @@
         <v>207955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4154,13 @@
         <v>32968</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -4091,13 +4169,13 @@
         <v>69405</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -4106,13 +4184,13 @@
         <v>102372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4205,13 @@
         <v>525286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>485</v>
@@ -4142,13 +4220,13 @@
         <v>490074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>992</v>
@@ -4157,13 +4235,13 @@
         <v>1015361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4297,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4231,13 +4309,13 @@
         <v>50812</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -4246,13 +4324,13 @@
         <v>126107</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4261,13 +4339,13 @@
         <v>176920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4360,13 @@
         <v>971619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>868</v>
@@ -4297,13 +4375,13 @@
         <v>916806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>1770</v>
@@ -4312,13 +4390,13 @@
         <v>1888424</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4464,13 @@
         <v>45020</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4401,13 +4479,13 @@
         <v>102398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -4416,13 +4494,13 @@
         <v>147418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4515,13 @@
         <v>714532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -4452,13 +4530,13 @@
         <v>682613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4467,13 +4545,13 @@
         <v>1397145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4619,13 @@
         <v>70759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -4556,13 +4634,13 @@
         <v>118814</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -4571,13 +4649,13 @@
         <v>189573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4670,13 @@
         <v>866808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>854</v>
@@ -4607,13 +4685,13 @@
         <v>924965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>1717</v>
@@ -4622,13 +4700,13 @@
         <v>1791773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4774,13 @@
         <v>205975</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>386</v>
@@ -4711,13 +4789,13 @@
         <v>432259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>581</v>
@@ -4726,13 +4804,13 @@
         <v>638234</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4825,13 @@
         <v>3188375</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>2952</v>
@@ -4762,13 +4840,13 @@
         <v>3112283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>5988</v>
@@ -4777,13 +4855,13 @@
         <v>6300658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4860,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F4DF78-048C-479E-BBCC-3BBAF86196C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D70C49F-D5ED-4CEB-8542-8C2D6924DF44}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4877,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4984,13 +5062,13 @@
         <v>5776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4999,13 +5077,13 @@
         <v>15623</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5014,13 +5092,13 @@
         <v>21399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5113,13 @@
         <v>96206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -5050,13 +5128,13 @@
         <v>114436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>319</v>
@@ -5065,13 +5143,13 @@
         <v>210642</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5217,13 @@
         <v>31765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5154,13 +5232,13 @@
         <v>63014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -5169,13 +5247,13 @@
         <v>94780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5268,13 @@
         <v>518058</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>885</v>
@@ -5205,13 +5283,13 @@
         <v>529948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>1461</v>
@@ -5220,13 +5298,13 @@
         <v>1048005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5360,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5294,13 +5372,13 @@
         <v>52903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -5309,13 +5387,13 @@
         <v>119312</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -5324,13 +5402,13 @@
         <v>172215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,13 +5423,13 @@
         <v>986345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1334</v>
@@ -5360,13 +5438,13 @@
         <v>939476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>2237</v>
@@ -5375,13 +5453,13 @@
         <v>1925821</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5527,13 @@
         <v>63803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>125</v>
@@ -5464,13 +5542,13 @@
         <v>93119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -5479,13 +5557,13 @@
         <v>156922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5578,13 @@
         <v>664969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>922</v>
@@ -5515,13 +5593,13 @@
         <v>781252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>1541</v>
@@ -5530,13 +5608,13 @@
         <v>1446220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5682,13 @@
         <v>55835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -5619,13 +5697,13 @@
         <v>151005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>270</v>
@@ -5634,13 +5712,13 @@
         <v>206840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5733,13 @@
         <v>908282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>1353</v>
@@ -5670,13 +5748,13 @@
         <v>998176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>2294</v>
@@ -5685,13 +5763,13 @@
         <v>1906458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5837,13 @@
         <v>210083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>657</v>
@@ -5774,13 +5852,13 @@
         <v>442073</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>881</v>
@@ -5789,13 +5867,13 @@
         <v>652155</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5888,13 @@
         <v>3173859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>4702</v>
@@ -5825,13 +5903,13 @@
         <v>3363287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>7852</v>
@@ -5840,13 +5918,13 @@
         <v>6537147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1001-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE937A5-5C18-4804-A5F0-728873D48100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97B4A429-03FB-44C0-93E6-F780EFE41ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C146FE6-5C4A-488A-AEA3-86DBFC407EC5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C564DCD4-37D4-48E0-B68E-9796DE5AC027}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1276 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas emocionales en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35707E3-7DC0-4BFB-93AE-E4D2040A9103}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2252AAD-AB83-4000-AE55-EC61488929B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>3327</v>
+        <v>29865</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>7279</v>
+        <v>45715</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>10606</v>
+        <v>75579</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>652</v>
       </c>
       <c r="D5" s="7">
-        <v>112031</v>
+        <v>664147</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="I5" s="7">
-        <v>105476</v>
+        <v>642636</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1302</v>
       </c>
       <c r="N5" s="7">
-        <v>217507</v>
+        <v>1306784</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7">
-        <v>26537</v>
+        <v>57591</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2034,37 +1839,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7">
+        <v>73651</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>120</v>
+      </c>
+      <c r="N7" s="7">
+        <v>131243</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7">
-        <v>38435</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="7">
-        <v>66</v>
-      </c>
-      <c r="N7" s="7">
-        <v>64973</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,49 +1878,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>550</v>
+        <v>841</v>
       </c>
       <c r="D8" s="7">
-        <v>552117</v>
+        <v>904209</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>530</v>
+        <v>843</v>
       </c>
       <c r="I8" s="7">
-        <v>537161</v>
+        <v>894742</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1080</v>
+        <v>1684</v>
       </c>
       <c r="N8" s="7">
-        <v>1089277</v>
+        <v>1798950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,55 +1976,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>49652</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7">
+        <v>91161</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="7">
-        <v>57591</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="7">
-        <v>65</v>
-      </c>
-      <c r="I10" s="7">
-        <v>73651</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="N10" s="7">
-        <v>131243</v>
+        <v>140813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2033,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>841</v>
+        <v>593</v>
       </c>
       <c r="D11" s="7">
-        <v>904209</v>
+        <v>628857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>843</v>
+        <v>603</v>
       </c>
       <c r="I11" s="7">
-        <v>894742</v>
+        <v>592680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1684</v>
+        <v>1196</v>
       </c>
       <c r="N11" s="7">
-        <v>1798950</v>
+        <v>1221537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,55 +2131,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>49652</v>
+        <v>61131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>91161</v>
+        <v>107748</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>140813</v>
+        <v>168879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>593</v>
+        <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>628857</v>
+        <v>881091</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>603</v>
+        <v>893</v>
       </c>
       <c r="I14" s="7">
-        <v>592680</v>
+        <v>930864</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1196</v>
+        <v>1825</v>
       </c>
       <c r="N14" s="7">
-        <v>1221537</v>
+        <v>1811955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>61131</v>
+        <v>198238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="I16" s="7">
-        <v>107748</v>
+        <v>318275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>166</v>
+        <v>504</v>
       </c>
       <c r="N16" s="7">
-        <v>168879</v>
+        <v>516514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>3018</v>
       </c>
       <c r="D17" s="7">
-        <v>881091</v>
+        <v>3078305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>893</v>
+        <v>2989</v>
       </c>
       <c r="I17" s="7">
-        <v>930864</v>
+        <v>3060922</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1825</v>
+        <v>6007</v>
       </c>
       <c r="N17" s="7">
-        <v>1811955</v>
+        <v>6139227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>196</v>
-      </c>
-      <c r="D19" s="7">
-        <v>198239</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>308</v>
-      </c>
-      <c r="I19" s="7">
-        <v>318275</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>504</v>
-      </c>
-      <c r="N19" s="7">
-        <v>516513</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3018</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3078305</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2989</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3060923</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6007</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6139227</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD60750-8F6B-468E-B097-A7A4BDB60C3A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACB79A1-31F0-4FC9-A1A6-ECD36F6F3EB2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D4" s="7">
-        <v>8261</v>
+        <v>47701</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I4" s="7">
-        <v>15357</v>
+        <v>104901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="N4" s="7">
-        <v>23619</v>
+        <v>152602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>628</v>
       </c>
       <c r="D5" s="7">
-        <v>107504</v>
+        <v>655768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="I5" s="7">
-        <v>96548</v>
+        <v>592149</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>197</v>
+        <v>1178</v>
       </c>
       <c r="N5" s="7">
-        <v>204051</v>
+        <v>1247917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>39439</v>
+        <v>83373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>89544</v>
+        <v>162821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="N7" s="7">
-        <v>128983</v>
+        <v>246195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>516</v>
+        <v>861</v>
       </c>
       <c r="D8" s="7">
-        <v>548265</v>
+        <v>933520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>465</v>
+        <v>793</v>
       </c>
       <c r="I8" s="7">
-        <v>495601</v>
+        <v>869363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>981</v>
+        <v>1654</v>
       </c>
       <c r="N8" s="7">
-        <v>1043866</v>
+        <v>1802882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,55 +2883,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>83373</v>
+        <v>41168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
+        <v>94</v>
+      </c>
+      <c r="I10" s="7">
+        <v>102244</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="7">
-        <v>162821</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>246195</v>
+        <v>143412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>861</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>933520</v>
+        <v>716455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>793</v>
+        <v>610</v>
       </c>
       <c r="I11" s="7">
-        <v>869363</v>
+        <v>673875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1654</v>
+        <v>1265</v>
       </c>
       <c r="N11" s="7">
-        <v>1802882</v>
+        <v>1390330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016893</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776119</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2049077</v>
+        <v>1533742</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,55 +3038,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>41168</v>
+        <v>70421</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>102244</v>
+        <v>150778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="N13" s="7">
-        <v>143412</v>
+        <v>221199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>655</v>
+        <v>843</v>
       </c>
       <c r="D14" s="7">
-        <v>716455</v>
+        <v>876381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>610</v>
+        <v>860</v>
       </c>
       <c r="I14" s="7">
-        <v>673875</v>
+        <v>900178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>1265</v>
+        <v>1703</v>
       </c>
       <c r="N14" s="7">
-        <v>1390330</v>
+        <v>1776559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>946802</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776119</v>
+        <v>1050956</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1911</v>
       </c>
       <c r="N15" s="7">
-        <v>1533742</v>
+        <v>1997758</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D16" s="7">
-        <v>70421</v>
+        <v>242663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>483</v>
       </c>
       <c r="I16" s="7">
-        <v>150778</v>
+        <v>520744</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>208</v>
+        <v>703</v>
       </c>
       <c r="N16" s="7">
-        <v>221199</v>
+        <v>763407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>843</v>
+        <v>2987</v>
       </c>
       <c r="D17" s="7">
-        <v>876381</v>
+        <v>3182125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>860</v>
+        <v>2813</v>
       </c>
       <c r="I17" s="7">
-        <v>900178</v>
+        <v>3035565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>1703</v>
+        <v>5800</v>
       </c>
       <c r="N17" s="7">
-        <v>1776559</v>
+        <v>6217690</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3207</v>
       </c>
       <c r="D18" s="7">
-        <v>946802</v>
+        <v>3424788</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1050956</v>
+        <v>3556309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1911</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1997758</v>
+        <v>6981097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>220</v>
-      </c>
-      <c r="D19" s="7">
-        <v>242663</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>483</v>
-      </c>
-      <c r="I19" s="7">
-        <v>520744</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>703</v>
-      </c>
-      <c r="N19" s="7">
-        <v>763407</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2987</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3182125</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2813</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3035565</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5800</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6217690</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424788</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981097</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB63377-BC27-4C9E-BA71-3DF49E71E5E0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20416F8F-2DCD-41C8-8E03-2DE4FA69A5FF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>6416</v>
+        <v>39383</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="I4" s="7">
-        <v>15536</v>
+        <v>84940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="N4" s="7">
-        <v>21951</v>
+        <v>124324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>614</v>
       </c>
       <c r="D5" s="7">
-        <v>110130</v>
+        <v>635417</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>101</v>
+        <v>586</v>
       </c>
       <c r="I5" s="7">
-        <v>97824</v>
+        <v>587899</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>208</v>
+        <v>1200</v>
       </c>
       <c r="N5" s="7">
-        <v>207955</v>
+        <v>1223315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>32968</v>
+        <v>50812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>69405</v>
+        <v>126107</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="N7" s="7">
-        <v>102372</v>
+        <v>176920</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>507</v>
+        <v>902</v>
       </c>
       <c r="D8" s="7">
-        <v>525286</v>
+        <v>971619</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>485</v>
+        <v>868</v>
       </c>
       <c r="I8" s="7">
-        <v>490074</v>
+        <v>916806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>992</v>
+        <v>1770</v>
       </c>
       <c r="N8" s="7">
-        <v>1015361</v>
+        <v>1888424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,55 +3790,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>50812</v>
+        <v>45020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>126107</v>
+        <v>102398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>176920</v>
+        <v>147418</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>902</v>
+        <v>657</v>
       </c>
       <c r="D11" s="7">
-        <v>971619</v>
+        <v>714532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
-        <v>868</v>
+        <v>644</v>
       </c>
       <c r="I11" s="7">
-        <v>916806</v>
+        <v>682613</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1770</v>
+        <v>1301</v>
       </c>
       <c r="N11" s="7">
-        <v>1888424</v>
+        <v>1397145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,55 +3945,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>45020</v>
+        <v>70759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>102398</v>
+        <v>118814</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="N13" s="7">
-        <v>147418</v>
+        <v>189573</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>657</v>
+        <v>863</v>
       </c>
       <c r="D14" s="7">
-        <v>714532</v>
+        <v>866808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>644</v>
+        <v>854</v>
       </c>
       <c r="I14" s="7">
-        <v>682613</v>
+        <v>924965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>1301</v>
+        <v>1717</v>
       </c>
       <c r="N14" s="7">
-        <v>1397145</v>
+        <v>1791773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="D16" s="7">
-        <v>70759</v>
+        <v>205975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>386</v>
       </c>
       <c r="I16" s="7">
-        <v>118814</v>
+        <v>432259</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>174</v>
+        <v>581</v>
       </c>
       <c r="N16" s="7">
-        <v>189573</v>
+        <v>638234</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>863</v>
+        <v>3036</v>
       </c>
       <c r="D17" s="7">
-        <v>866808</v>
+        <v>3188375</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>854</v>
+        <v>2952</v>
       </c>
       <c r="I17" s="7">
-        <v>924965</v>
+        <v>3112283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>1717</v>
+        <v>5988</v>
       </c>
       <c r="N17" s="7">
-        <v>1791773</v>
+        <v>6300658</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>195</v>
-      </c>
-      <c r="D19" s="7">
-        <v>205975</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>386</v>
-      </c>
-      <c r="I19" s="7">
-        <v>432259</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>581</v>
-      </c>
-      <c r="N19" s="7">
-        <v>638234</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3036</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3188375</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2952</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3112283</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5988</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6300658</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D70C49F-D5ED-4CEB-8542-8C2D6924DF44}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0AED1D-6CC2-470F-9839-BD8652133843}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>5776</v>
+        <v>34891</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7">
-        <v>15623</v>
+        <v>71888</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="N4" s="7">
-        <v>21399</v>
+        <v>106778</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>687</v>
       </c>
       <c r="D5" s="7">
-        <v>96206</v>
+        <v>600550</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
-        <v>208</v>
+        <v>1093</v>
       </c>
       <c r="I5" s="7">
-        <v>114436</v>
+        <v>603241</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
-        <v>319</v>
+        <v>1780</v>
       </c>
       <c r="N5" s="7">
-        <v>210642</v>
+        <v>1203793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>241</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130059</v>
+        <v>675129</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232041</v>
+        <v>1310571</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>31765</v>
+        <v>49308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="I7" s="7">
-        <v>63014</v>
+        <v>106745</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="N7" s="7">
-        <v>94780</v>
+        <v>156053</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>576</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>518058</v>
+        <v>1143556</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>885</v>
+        <v>1334</v>
       </c>
       <c r="I8" s="7">
-        <v>529948</v>
+        <v>850717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>1461</v>
+        <v>2237</v>
       </c>
       <c r="N8" s="7">
-        <v>1048005</v>
+        <v>1994273</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957462</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150326</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,55 +4697,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>52903</v>
+        <v>60795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>119312</v>
+        <v>83664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="N10" s="7">
-        <v>172215</v>
+        <v>144459</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>619</v>
       </c>
       <c r="D11" s="7">
-        <v>986345</v>
+        <v>643885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>1334</v>
+        <v>922</v>
       </c>
       <c r="I11" s="7">
-        <v>939476</v>
+        <v>849702</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>2237</v>
+        <v>1541</v>
       </c>
       <c r="N11" s="7">
-        <v>1925821</v>
+        <v>1493587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058788</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098036</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,55 +4852,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>63803</v>
+        <v>53997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="I13" s="7">
-        <v>93119</v>
+        <v>132704</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="N13" s="7">
-        <v>156922</v>
+        <v>186701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>619</v>
+        <v>941</v>
       </c>
       <c r="D14" s="7">
-        <v>664969</v>
+        <v>871628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="H14" s="7">
-        <v>922</v>
+        <v>1353</v>
       </c>
       <c r="I14" s="7">
-        <v>781252</v>
+        <v>961138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
-        <v>1541</v>
+        <v>2294</v>
       </c>
       <c r="N14" s="7">
-        <v>1446220</v>
+        <v>1832766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093842</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019467</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="D16" s="7">
-        <v>55835</v>
+        <v>198990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
-        <v>207</v>
+        <v>657</v>
       </c>
       <c r="I16" s="7">
-        <v>151005</v>
+        <v>395001</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
-        <v>270</v>
+        <v>881</v>
       </c>
       <c r="N16" s="7">
-        <v>206840</v>
+        <v>593991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>941</v>
+        <v>3150</v>
       </c>
       <c r="D17" s="7">
-        <v>908282</v>
+        <v>3259621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>1353</v>
+        <v>4702</v>
       </c>
       <c r="I17" s="7">
-        <v>998176</v>
+        <v>3264798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>2294</v>
+        <v>7852</v>
       </c>
       <c r="N17" s="7">
-        <v>1906458</v>
+        <v>6524418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964117</v>
+        <v>3458611</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1149181</v>
+        <v>3659799</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2113298</v>
+        <v>7118409</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>224</v>
-      </c>
-      <c r="D19" s="7">
-        <v>210083</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>657</v>
-      </c>
-      <c r="I19" s="7">
-        <v>442073</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>881</v>
-      </c>
-      <c r="N19" s="7">
-        <v>652155</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3150</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3173859</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4702</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3363287</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7852</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6537147</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383942</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3805360</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7189302</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
